--- a/equipment_cyg/product/zhong_che_zhu_zhou/zhong_che_zhu_zhou_temp_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_zhu_zhou/zhong_che_zhu_zhou_temp_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="2" r:id="rId1"/>
@@ -2361,7 +2361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2709,9 +2709,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3200,7 +3197,7 @@
       <c r="C1" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="117"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="116" t="s">
         <v>0</v>
       </c>
@@ -3215,191 +3212,191 @@
       </c>
     </row>
     <row r="2" s="107" customFormat="1" spans="1:8">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118" t="s">
+      <c r="G2" s="117"/>
+      <c r="H2" s="117" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="107" customFormat="1" ht="27" spans="1:8">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119" t="s">
+      <c r="G3" s="117"/>
+      <c r="H3" s="118" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" s="107" customFormat="1" ht="40.5" spans="1:8">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="118" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" s="107" customFormat="1" spans="1:8">
-      <c r="A5" s="118"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="E5" s="118" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="E5" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="118" t="s">
+      <c r="G5" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="118"/>
+      <c r="H5" s="117"/>
     </row>
     <row r="6" s="107" customFormat="1" ht="54" spans="1:8">
-      <c r="A6" s="118"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="E6" s="118" t="s">
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="E6" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="118" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" s="107" customFormat="1" ht="12" customHeight="1" spans="1:8">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="120" t="s">
+      <c r="G7" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="121" t="s">
+      <c r="H7" s="120" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" s="107" customFormat="1" ht="12" customHeight="1" spans="1:8">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="120" t="s">
+      <c r="D8" s="121"/>
+      <c r="E8" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="120" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" s="107" customFormat="1" spans="1:8">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="118" t="s">
+      <c r="G9" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="118"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" s="107" customFormat="1" ht="27" spans="1:8">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="118" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4138,7 +4135,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
@@ -5022,10 +5019,10 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
@@ -5850,7 +5847,7 @@
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -6328,7 +6325,7 @@
   <sheetPr/>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
